--- a/templates/delivery_note.xlsx
+++ b/templates/delivery_note.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t>P.O. Box 15414, Ma On Shan Post Office.</t>
   </si>
@@ -99,6 +99,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="細明體"/>
+        <charset val="136"/>
       </rPr>
       <t>收貨簽名</t>
     </r>
@@ -106,6 +107,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="新細明體"/>
+        <charset val="136"/>
       </rPr>
       <t xml:space="preserve"> / </t>
     </r>
@@ -113,6 +115,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="細明體"/>
+        <charset val="136"/>
       </rPr>
       <t>蓋章</t>
     </r>
@@ -120,6 +123,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="新細明體"/>
+        <charset val="136"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -234,6 +238,9 @@
   </si>
   <si>
     <t>${d3.qty}</t>
+  </si>
+  <si>
+    <t>${telephone2}</t>
   </si>
 </sst>
 </file>
@@ -281,7 +288,8 @@
     <font>
       <b/>
       <sz val="20"/>
-      <name val="MingLiu"/>
+      <name val="MingLiU"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -291,7 +299,8 @@
     <font>
       <b/>
       <sz val="16"/>
-      <name val="MingLiu"/>
+      <name val="MingLiU"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -339,7 +348,8 @@
       <b/>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
-      <name val="MingLiu"/>
+      <name val="MingLiU"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -355,10 +365,12 @@
     <font>
       <sz val="12"/>
       <name val="細明體"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -569,9 +581,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -584,156 +593,204 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -748,51 +805,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1114,7 +1126,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A6" sqref="A6:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1184,12 +1196,12 @@
       <c r="J4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
     </row>
     <row r="5" spans="1:14" ht="25" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -1206,53 +1218,53 @@
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="78" t="s">
+      <c r="M5" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="78"/>
+      <c r="N5" s="75"/>
     </row>
     <row r="6" spans="1:14" ht="25" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3"/>
@@ -1261,79 +1273,81 @@
       <c r="E8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15" t="s">
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
+      <c r="K8" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
     </row>
     <row r="9" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="65"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="80"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="68"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="83"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="74"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="71"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
@@ -1342,10 +1356,10 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1357,273 +1371,273 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24" t="s">
+      <c r="G13" s="19"/>
+      <c r="H13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="26" t="s">
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="23" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="81" t="s">
+      <c r="F14" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="82"/>
-      <c r="H14" s="24" t="s">
+      <c r="G14" s="61"/>
+      <c r="H14" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="70"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="29" t="s">
+      <c r="J14" s="63"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="23" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="81" t="s">
+      <c r="F15" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="82"/>
-      <c r="H15" s="24" t="s">
+      <c r="G15" s="61"/>
+      <c r="H15" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="28" t="s">
+      <c r="I15" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="70"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="29" t="s">
+      <c r="J15" s="63"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="23" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="23" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="81" t="s">
+      <c r="F16" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="82"/>
-      <c r="H16" s="24" t="s">
+      <c r="G16" s="61"/>
+      <c r="H16" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="28" t="s">
+      <c r="I16" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="70"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="29" t="s">
+      <c r="J16" s="63"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="23" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="25" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="32"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="26"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="34"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="28"/>
     </row>
     <row r="18" spans="1:14" ht="27" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="41" t="s">
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="M18" s="42" t="s">
+      <c r="M18" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="N18" s="43" t="s">
+      <c r="N18" s="37" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="27" x14ac:dyDescent="0.2">
-      <c r="A19" s="44"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="41" t="s">
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="M19" s="42" t="s">
+      <c r="M19" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="N19" s="29" t="s">
+      <c r="N19" s="23" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="27" x14ac:dyDescent="0.2">
-      <c r="A20" s="44"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="41" t="s">
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="M20" s="42" t="s">
+      <c r="M20" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="N20" s="45" t="s">
+      <c r="N20" s="39" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="25" x14ac:dyDescent="0.2">
-      <c r="A21" s="44"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="33"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="27"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="34"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="28"/>
     </row>
     <row r="22" spans="1:14" ht="25" x14ac:dyDescent="0.2">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="35" t="s">
+      <c r="F22" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="47" t="s">
+      <c r="G22" s="30"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="J22" s="48"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="83" t="s">
+      <c r="J22" s="42"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="M22" s="42" t="s">
+      <c r="M22" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="N22" s="49" t="s">
+      <c r="N22" s="43" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="25" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="35" t="s">
+      <c r="F23" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="36"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="83" t="s">
+      <c r="G23" s="30"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="M23" s="42" t="s">
+      <c r="M23" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="N23" s="49" t="s">
+      <c r="N23" s="43" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="25" x14ac:dyDescent="0.2">
-      <c r="A24" s="50"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="47" t="s">
+      <c r="G24" s="30"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="48"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="83" t="s">
+      <c r="J24" s="42"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="M24" s="42" t="s">
+      <c r="M24" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="N24" s="49" t="s">
+      <c r="N24" s="43" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1634,16 +1648,16 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="16"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="51" t="s">
+      <c r="L25" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="M25" s="75"/>
-      <c r="N25" s="52">
+      <c r="M25" s="66"/>
+      <c r="N25" s="45">
         <f>SUM(N14:N24)</f>
         <v>0</v>
       </c>
@@ -1652,19 +1666,19 @@
       <c r="A26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="53"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="54" t="s">
+      <c r="F26" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="53"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="46"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -1674,64 +1688,64 @@
       <c r="A27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="53"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="76" t="s">
+      <c r="F27" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
     </row>
     <row r="28" spans="1:14" ht="23" x14ac:dyDescent="0.2">
-      <c r="A28" s="55"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
     </row>
     <row r="29" spans="1:14" ht="23" x14ac:dyDescent="0.2">
-      <c r="A29" s="57"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="77"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
     </row>
     <row r="30" spans="1:14" ht="23" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
       <c r="H30" s="3"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -1741,21 +1755,21 @@
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" ht="23" x14ac:dyDescent="0.2">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="80" t="s">
+      <c r="B31" s="47"/>
+      <c r="C31" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -1768,23 +1782,23 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="55"/>
+      <c r="H32" s="47"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
     </row>
     <row r="33" spans="1:14" ht="23" x14ac:dyDescent="0.2">
-      <c r="A33" s="55"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
       <c r="I33" s="5"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -1802,34 +1816,41 @@
       <c r="G34" s="3"/>
       <c r="H34" s="4"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="61" t="s">
+      <c r="J34" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="57"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="63" t="s">
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="K35" s="63"/>
-      <c r="L35" s="63"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="63"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="F9:N10"/>
     <mergeCell ref="J35:N35"/>
     <mergeCell ref="F27:N29"/>
     <mergeCell ref="K4:N4"/>
@@ -1846,13 +1867,6 @@
     <mergeCell ref="I13:M13"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="L14:M14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="A6:N6"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="F9:N10"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/delivery_note.xlsx
+++ b/templates/delivery_note.xlsx
@@ -150,9 +150,6 @@
     <t>${delivery_date}</t>
   </si>
   <si>
-    <t>${order_id}</t>
-  </si>
-  <si>
     <t>${order_date}</t>
   </si>
   <si>
@@ -241,6 +238,9 @@
   </si>
   <si>
     <t>${telephone2}</t>
+  </si>
+  <si>
+    <t>${invoice_no}</t>
   </si>
 </sst>
 </file>
@@ -719,6 +719,42 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -740,15 +776,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -778,33 +805,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1125,8 +1125,8 @@
   </sheetPr>
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:N6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1196,12 +1196,12 @@
       <c r="J4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
+      <c r="K4" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
     </row>
     <row r="5" spans="1:14" ht="25" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -1218,28 +1218,28 @@
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="75"/>
+      <c r="M5" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="58"/>
     </row>
     <row r="6" spans="1:14" ht="25" x14ac:dyDescent="0.2">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
@@ -1252,7 +1252,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="11"/>
@@ -1273,21 +1273,21 @@
       <c r="E8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="77" t="s">
+      <c r="F8" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
       <c r="J8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
+      <c r="K8" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
     </row>
     <row r="9" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
@@ -1299,17 +1299,17 @@
       <c r="E9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="78" t="s">
+      <c r="F9" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="80"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="63"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
@@ -1317,15 +1317,15 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="83"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="66"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
@@ -1337,17 +1337,17 @@
       <c r="E11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="71"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="80"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
@@ -1378,13 +1378,13 @@
       <c r="H13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="72" t="s">
+      <c r="I13" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="74"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="83"/>
       <c r="N13" s="21" t="s">
         <v>14</v>
       </c>
@@ -1397,22 +1397,22 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="60" t="s">
+      <c r="F14" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="73"/>
+      <c r="H14" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="61"/>
-      <c r="H14" s="20" t="s">
+      <c r="I14" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" s="63"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="64"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="57"/>
       <c r="N14" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="23" x14ac:dyDescent="0.2">
@@ -1421,22 +1421,22 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="61"/>
+      <c r="F15" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="73"/>
       <c r="H15" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="63"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="64"/>
+        <v>38</v>
+      </c>
+      <c r="I15" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="56"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="57"/>
       <c r="N15" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="23" x14ac:dyDescent="0.2">
@@ -1445,22 +1445,22 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="61"/>
+      <c r="F16" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="73"/>
       <c r="H16" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" s="63"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="64"/>
+        <v>39</v>
+      </c>
+      <c r="I16" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="57"/>
       <c r="N16" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="25" x14ac:dyDescent="0.2">
@@ -1494,13 +1494,13 @@
       <c r="J18" s="33"/>
       <c r="K18" s="34"/>
       <c r="L18" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M18" s="36" t="s">
         <v>24</v>
       </c>
       <c r="N18" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="27" x14ac:dyDescent="0.2">
@@ -1516,13 +1516,13 @@
       <c r="J19" s="33"/>
       <c r="K19" s="34"/>
       <c r="L19" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M19" s="36" t="s">
         <v>24</v>
       </c>
       <c r="N19" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="27" x14ac:dyDescent="0.2">
@@ -1538,13 +1538,13 @@
       <c r="J20" s="33"/>
       <c r="K20" s="34"/>
       <c r="L20" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M20" s="36" t="s">
         <v>24</v>
       </c>
       <c r="N20" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="25" x14ac:dyDescent="0.2">
@@ -1572,7 +1572,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G22" s="30"/>
       <c r="H22" s="34"/>
@@ -1582,13 +1582,13 @@
       <c r="J22" s="42"/>
       <c r="K22" s="34"/>
       <c r="L22" s="54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M22" s="36" t="s">
         <v>24</v>
       </c>
       <c r="N22" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="25" x14ac:dyDescent="0.2">
@@ -1598,7 +1598,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G23" s="30"/>
       <c r="H23" s="34"/>
@@ -1606,13 +1606,13 @@
       <c r="J23" s="42"/>
       <c r="K23" s="34"/>
       <c r="L23" s="54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="36" t="s">
         <v>24</v>
       </c>
       <c r="N23" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="25" x14ac:dyDescent="0.2">
@@ -1622,7 +1622,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G24" s="30"/>
       <c r="H24" s="34"/>
@@ -1632,13 +1632,13 @@
       <c r="J24" s="42"/>
       <c r="K24" s="34"/>
       <c r="L24" s="54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M24" s="36" t="s">
         <v>24</v>
       </c>
       <c r="N24" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="28" x14ac:dyDescent="0.2">
@@ -1653,10 +1653,10 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="65" t="s">
+      <c r="L25" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="M25" s="66"/>
+      <c r="M25" s="75"/>
       <c r="N25" s="45">
         <f>SUM(N14:N24)</f>
         <v>0</v>
@@ -1672,12 +1672,12 @@
       <c r="E26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="67" t="s">
+      <c r="F26" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
       <c r="J26" s="46"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -1694,17 +1694,17 @@
       <c r="E27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="56" t="s">
+      <c r="F27" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
     </row>
     <row r="28" spans="1:14" ht="23" x14ac:dyDescent="0.2">
       <c r="A28" s="47"/>
@@ -1712,15 +1712,15 @@
       <c r="C28" s="48"/>
       <c r="D28" s="48"/>
       <c r="E28" s="48"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
     </row>
     <row r="29" spans="1:14" ht="23" x14ac:dyDescent="0.2">
       <c r="A29" s="49"/>
@@ -1728,15 +1728,15 @@
       <c r="C29" s="50"/>
       <c r="D29" s="50"/>
       <c r="E29" s="50"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
     </row>
     <row r="30" spans="1:14" ht="23" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
@@ -1759,17 +1759,17 @@
         <v>2</v>
       </c>
       <c r="B31" s="47"/>
-      <c r="C31" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
+      <c r="C31" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -1816,13 +1816,13 @@
       <c r="G34" s="3"/>
       <c r="H34" s="4"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="68" t="s">
+      <c r="J34" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="77"/>
+      <c r="N34" s="77"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="49"/>
@@ -1834,23 +1834,16 @@
       <c r="G35" s="49"/>
       <c r="H35" s="53"/>
       <c r="I35" s="51"/>
-      <c r="J35" s="55" t="s">
+      <c r="J35" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="A6:N6"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="F9:N10"/>
     <mergeCell ref="J35:N35"/>
     <mergeCell ref="F27:N29"/>
     <mergeCell ref="K4:N4"/>
@@ -1867,6 +1860,13 @@
     <mergeCell ref="I13:M13"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="L14:M14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="F9:N10"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/delivery_note.xlsx
+++ b/templates/delivery_note.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$42</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,13 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
-  <si>
-    <t>P.O. Box 15414, Ma On Shan Post Office.</t>
-  </si>
-  <si>
-    <t>Tel: 2649 4140 / Fax: 2636 6191</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="89">
   <si>
     <t>Invoice No.</t>
   </si>
@@ -242,6 +236,96 @@
   <si>
     <t>${invoice_no}</t>
   </si>
+  <si>
+    <t>P.O. Box 158, Ma On Shan Post Office.</t>
+  </si>
+  <si>
+    <t>Tel: 2649 6280 / Fax: 2636 6191</t>
+  </si>
+  <si>
+    <t>${tree4.product}</t>
+  </si>
+  <si>
+    <t>${tree5.product}</t>
+  </si>
+  <si>
+    <t>${tree6.product}</t>
+  </si>
+  <si>
+    <t>${tree7.product}</t>
+  </si>
+  <si>
+    <t>${tree4.size}</t>
+  </si>
+  <si>
+    <t>${tree5.size}</t>
+  </si>
+  <si>
+    <t>${tree6.size}</t>
+  </si>
+  <si>
+    <t>${tree7.size}</t>
+  </si>
+  <si>
+    <t>${tree4.qty}</t>
+  </si>
+  <si>
+    <t>${tree5.qty}</t>
+  </si>
+  <si>
+    <t>${tree6.qty}</t>
+  </si>
+  <si>
+    <t>${tree7.qty}</t>
+  </si>
+  <si>
+    <t>${tree4.stand}</t>
+  </si>
+  <si>
+    <t>${tree5.stand}</t>
+  </si>
+  <si>
+    <t>${tree6.stand}</t>
+  </si>
+  <si>
+    <t>${tree7.stand}</t>
+  </si>
+  <si>
+    <t>${tree8.product}</t>
+  </si>
+  <si>
+    <t>${tree9.product}</t>
+  </si>
+  <si>
+    <t>${tree8.size}</t>
+  </si>
+  <si>
+    <t>${tree8.qty}</t>
+  </si>
+  <si>
+    <t>${tree8.stand}</t>
+  </si>
+  <si>
+    <t>${tree9.stand}</t>
+  </si>
+  <si>
+    <t>${tree9.size}</t>
+  </si>
+  <si>
+    <t>${tree9.qty}</t>
+  </si>
+  <si>
+    <t>${tree10.product}</t>
+  </si>
+  <si>
+    <t>${tree10.stand}</t>
+  </si>
+  <si>
+    <t>${tree10.size}</t>
+  </si>
+  <si>
+    <t>${tree10.qty}</t>
+  </si>
 </sst>
 </file>
 
@@ -254,7 +338,7 @@
     <numFmt numFmtId="166" formatCode="_(\$* #,##0.0_);_(\$* \(#,##0.0\);_(\$* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -379,6 +463,23 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="26"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -555,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -584,18 +685,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -698,14 +787,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -719,6 +802,21 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -726,17 +824,32 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -755,56 +868,57 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1123,10 +1237,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:N10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1158,7 +1272,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
       <c r="J2" s="6" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -1176,7 +1290,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
       <c r="J3" s="6" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -1194,14 +1308,14 @@
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
       <c r="J4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
     </row>
     <row r="5" spans="1:14" ht="25" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -1214,102 +1328,102 @@
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
       <c r="J5" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="58"/>
-    </row>
-    <row r="6" spans="1:14" ht="25" x14ac:dyDescent="0.2">
-      <c r="A6" s="59" t="s">
+      <c r="M5" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="64"/>
+    </row>
+    <row r="6" spans="1:14" ht="33" x14ac:dyDescent="0.2">
+      <c r="A6" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+    </row>
+    <row r="7" spans="1:14" s="82" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="F7" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="80"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+    </row>
+    <row r="8" spans="1:14" s="82" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="3" t="s">
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="K8" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+    </row>
+    <row r="9" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>7</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-    </row>
-    <row r="9" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>9</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="63"/>
+        <v>4</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="67"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
@@ -1317,37 +1431,37 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="66"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="80"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="70"/>
+    </row>
+    <row r="11" spans="1:14" s="82" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="88"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
@@ -1356,10 +1470,10 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1371,495 +1485,668 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20" t="s">
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="81" t="s">
+    </row>
+    <row r="14" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
         <v>13</v>
-      </c>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="23" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
-        <v>15</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="72" t="s">
+      <c r="F14" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="53"/>
+      <c r="H14" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="73"/>
-      <c r="H14" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="56"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="23" t="s">
-        <v>32</v>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="19" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="23" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="72" t="s">
+      <c r="F15" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="53"/>
+      <c r="H15" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="73"/>
-      <c r="H15" s="20" t="s">
+      <c r="I15" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="55" t="s">
+      <c r="J15" s="55"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="56"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="23" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="16" spans="1:14" ht="23" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="72" t="s">
+      <c r="F16" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="53"/>
+      <c r="H16" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="73"/>
-      <c r="H16" s="20" t="s">
+      <c r="I16" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="55" t="s">
+      <c r="J16" s="55"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="25" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
+    </row>
+    <row r="17" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+      <c r="A17" s="20"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="28"/>
-    </row>
-    <row r="18" spans="1:14" ht="27" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="F17" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="53"/>
+      <c r="H17" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+      <c r="A18" s="20"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="M18" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="N18" s="37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="27" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
+      <c r="F18" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="53"/>
+      <c r="H18" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="55"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+      <c r="A19" s="20"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="M19" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="27" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
+      <c r="F19" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="53"/>
+      <c r="H19" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="55"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+      <c r="A20" s="20"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="M20" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="N20" s="39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="25" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
+      <c r="F20" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="53"/>
+      <c r="H20" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+      <c r="A21" s="20"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="28"/>
-    </row>
-    <row r="22" spans="1:14" ht="25" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
-        <v>17</v>
-      </c>
+      <c r="F21" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="53"/>
+      <c r="H21" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21" s="55"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+      <c r="A22" s="20"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="J22" s="42"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="M22" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="N22" s="43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="25" x14ac:dyDescent="0.2">
-      <c r="A23" s="44"/>
+      <c r="F22" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="53"/>
+      <c r="H22" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="J22" s="55"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+      <c r="A23" s="20"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="M23" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="N23" s="43" t="s">
-        <v>51</v>
+      <c r="F23" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="53"/>
+      <c r="H23" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="19" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="25" x14ac:dyDescent="0.2">
-      <c r="A24" s="44"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="42"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="M24" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="N24" s="43" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="28" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="24"/>
+    </row>
+    <row r="25" spans="1:14" ht="27" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>14</v>
+      </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="M25" s="75"/>
-      <c r="N25" s="45">
-        <f>SUM(N14:N24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="46"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="M25" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="27" x14ac:dyDescent="0.2">
+      <c r="A26" s="34"/>
+      <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="46"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="M26" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="27" x14ac:dyDescent="0.2">
+      <c r="A27" s="34"/>
+      <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-    </row>
-    <row r="28" spans="1:14" ht="23" x14ac:dyDescent="0.2">
-      <c r="A28" s="47"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-    </row>
-    <row r="29" spans="1:14" ht="23" x14ac:dyDescent="0.2">
-      <c r="A29" s="49"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-    </row>
-    <row r="30" spans="1:14" ht="23" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="1:14" ht="23" x14ac:dyDescent="0.2">
-      <c r="A31" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+      <c r="E27" s="3"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="M27" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N27" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="25" x14ac:dyDescent="0.2">
+      <c r="A28" s="34"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="24"/>
+    </row>
+    <row r="29" spans="1:14" ht="25" x14ac:dyDescent="0.2">
+      <c r="A29" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="26"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="38"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="M29" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N29" s="39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="25" x14ac:dyDescent="0.2">
+      <c r="A30" s="40"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="26"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="M30" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N30" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="25" x14ac:dyDescent="0.2">
+      <c r="A31" s="40"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="26"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="38"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="M31" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N31" s="39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="28" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-    </row>
-    <row r="33" spans="1:14" ht="23" x14ac:dyDescent="0.2">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="77"/>
-      <c r="N34" s="77"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="49"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="K35" s="67"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="67"/>
-      <c r="N35" s="67"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" s="58"/>
+      <c r="N32" s="41">
+        <f>SUM(N14:N31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="A33" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="73"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+    </row>
+    <row r="34" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="A34" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="73"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+    </row>
+    <row r="35" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="A35" s="75"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
+    </row>
+    <row r="36" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="A36" s="77"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="79"/>
+      <c r="M36" s="79"/>
+      <c r="N36" s="79"/>
+    </row>
+    <row r="37" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+      <c r="A38" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="43"/>
+      <c r="C38" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+    </row>
+    <row r="40" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" s="60"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="60"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="44"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="F27:N29"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="C31:K31"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="F11:N11"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:M14"/>
+  <mergeCells count="44">
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:M17"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="M5:N5"/>
@@ -1867,6 +2154,22 @@
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="K8:N8"/>
     <mergeCell ref="F9:N10"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="F34:N36"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J41:N41"/>
+    <mergeCell ref="F11:N11"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:M14"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/delivery_note.xlsx
+++ b/templates/delivery_note.xlsx
@@ -640,39 +640,213 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -690,180 +864,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1184,11 +1184,16 @@
   </sheetPr>
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="11" max="11" width="6.5" customWidth="1"/>
+    <col min="13" max="13" width="4.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
@@ -1258,12 +1263,12 @@
       <c r="J4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
       <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:15" ht="25" x14ac:dyDescent="0.25">
@@ -1276,806 +1281,834 @@
       <c r="G5" s="3"/>
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>1</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="12"/>
+      <c r="N5" s="76"/>
       <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:15" ht="37" x14ac:dyDescent="0.2">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
     </row>
     <row r="8" spans="1:15" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19" t="s">
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
     </row>
     <row r="9" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="23"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="81"/>
     </row>
     <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="26"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="84"/>
     </row>
     <row r="11" spans="1:15" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="29"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="72"/>
     </row>
     <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
     </row>
     <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="33" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35" t="s">
+      <c r="G13" s="22"/>
+      <c r="H13" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="I13" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="39" t="s">
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="40" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="35" t="s">
+      <c r="G14" s="62"/>
+      <c r="H14" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="42" t="s">
+      <c r="I14" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="43"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="45" t="s">
+      <c r="J14" s="64"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="40" t="s">
+      <c r="A15" s="26"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="41"/>
-      <c r="H15" s="35" t="s">
+      <c r="G15" s="62"/>
+      <c r="H15" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="43"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="45" t="s">
+      <c r="J15" s="64"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="25" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="40" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="41"/>
-      <c r="H16" s="35" t="s">
+      <c r="G16" s="62"/>
+      <c r="H16" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="42" t="s">
+      <c r="I16" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="43"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="45" t="s">
+      <c r="J16" s="64"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="25" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="40" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="41"/>
-      <c r="H17" s="35" t="s">
+      <c r="G17" s="62"/>
+      <c r="H17" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="42" t="s">
+      <c r="I17" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="J17" s="43"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="45" t="s">
+      <c r="J17" s="64"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="25" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A18" s="46"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="40" t="s">
+      <c r="A18" s="26"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="41"/>
-      <c r="H18" s="35" t="s">
+      <c r="G18" s="62"/>
+      <c r="H18" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="I18" s="42" t="s">
+      <c r="I18" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="J18" s="43"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="45" t="s">
+      <c r="J18" s="64"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="40" t="s">
+      <c r="A19" s="26"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="35" t="s">
+      <c r="G19" s="62"/>
+      <c r="H19" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="42" t="s">
+      <c r="I19" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="43"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="45" t="s">
+      <c r="J19" s="64"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="25" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A20" s="46"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="40" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="41"/>
-      <c r="H20" s="35" t="s">
+      <c r="G20" s="62"/>
+      <c r="H20" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="I20" s="42" t="s">
+      <c r="I20" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="43"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="45" t="s">
+      <c r="J20" s="64"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="25" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A21" s="46"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="40" t="s">
+      <c r="A21" s="26"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="35" t="s">
+      <c r="G21" s="62"/>
+      <c r="H21" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="I21" s="42" t="s">
+      <c r="I21" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="J21" s="43"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="45" t="s">
+      <c r="J21" s="64"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="25" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A22" s="46"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="40" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="35" t="s">
+      <c r="G22" s="62"/>
+      <c r="H22" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="I22" s="42" t="s">
+      <c r="I22" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="J22" s="43"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="45" t="s">
+      <c r="J22" s="64"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="25" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A23" s="46"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="40" t="s">
+      <c r="A23" s="26"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="G23" s="41"/>
-      <c r="H23" s="35" t="s">
+      <c r="G23" s="62"/>
+      <c r="H23" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="I23" s="42" t="s">
+      <c r="I23" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="J23" s="43"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="45" t="s">
+      <c r="J23" s="64"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="25" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A24" s="46"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="48"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="28"/>
     </row>
     <row r="25" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="55" t="s">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="M25" s="56" t="s">
+      <c r="M25" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="N25" s="57" t="s">
+      <c r="N25" s="37" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="58"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="55" t="s">
+      <c r="A26" s="38"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="M26" s="56" t="s">
+      <c r="M26" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="N26" s="45" t="s">
+      <c r="N26" s="25" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="58"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="55" t="s">
+      <c r="A27" s="38"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="M27" s="56" t="s">
+      <c r="M27" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="N27" s="59" t="s">
+      <c r="N27" s="39" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A28" s="58"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="48"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="28"/>
     </row>
     <row r="29" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="49" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="G29" s="50"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="60" t="s">
+      <c r="G29" s="30"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="J29" s="61"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="62" t="s">
+      <c r="J29" s="41"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="M29" s="56" t="s">
+      <c r="M29" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="N29" s="63" t="s">
+      <c r="N29" s="43" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A30" s="64"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="49" t="s">
+      <c r="A30" s="44"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="50"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="62" t="s">
+      <c r="G30" s="30"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="M30" s="56" t="s">
+      <c r="M30" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="N30" s="63" t="s">
+      <c r="N30" s="43" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A31" s="64"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="49" t="s">
+      <c r="A31" s="44"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="50"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="60" t="s">
+      <c r="G31" s="30"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="J31" s="61"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="62" t="s">
+      <c r="J31" s="41"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="M31" s="56" t="s">
+      <c r="M31" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="63" t="s">
+      <c r="N31" s="43" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="65" t="s">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="M32" s="66"/>
-      <c r="N32" s="67">
+      <c r="M32" s="67"/>
+      <c r="N32" s="45">
         <f>SUM(N14:N31)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="68"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14" t="s">
+      <c r="B33" s="46"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="69" t="s">
+      <c r="F33" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
     </row>
     <row r="34" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="68"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14" t="s">
+      <c r="B34" s="46"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F34" s="70" t="s">
+      <c r="F34" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="70"/>
-      <c r="N34" s="70"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
     </row>
     <row r="35" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A35" s="71"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
-      <c r="K35" s="70"/>
-      <c r="L35" s="70"/>
-      <c r="M35" s="70"/>
-      <c r="N35" s="70"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
     </row>
     <row r="36" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A36" s="73"/>
-      <c r="B36" s="74"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
-      <c r="N36" s="75"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="58"/>
+      <c r="N36" s="58"/>
     </row>
     <row r="37" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="76"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
     </row>
     <row r="38" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A38" s="77" t="s">
+      <c r="A38" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="71"/>
-      <c r="C38" s="78" t="s">
+      <c r="B38" s="47"/>
+      <c r="C38" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="78"/>
-      <c r="J38" s="78"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
     </row>
     <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="68"/>
-      <c r="M39" s="68"/>
-      <c r="N39" s="68"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46"/>
     </row>
     <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A40" s="71"/>
-      <c r="B40" s="71"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
     </row>
     <row r="41" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="80" t="s">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="K41" s="80"/>
-      <c r="L41" s="80"/>
-      <c r="M41" s="80"/>
-      <c r="N41" s="80"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="69"/>
     </row>
     <row r="42" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" s="73"/>
-      <c r="B42" s="73"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="82"/>
-      <c r="J42" s="83" t="s">
+      <c r="A42" s="49"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="K42" s="83"/>
-      <c r="L42" s="83"/>
-      <c r="M42" s="83"/>
-      <c r="N42" s="83"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="F9:N10"/>
     <mergeCell ref="J42:N42"/>
     <mergeCell ref="F34:N36"/>
     <mergeCell ref="K4:N4"/>
@@ -2092,34 +2125,6 @@
     <mergeCell ref="I13:M13"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="L14:M14"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="A6:N6"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="F9:N10"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="L23:M23"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/delivery_note.xlsx
+++ b/templates/delivery_note.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chung/ernestlau/sophies-christmas-trees/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C812B26F-C298-AF4E-9672-F752884F181C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$43</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
   <si>
     <t>Invoice No.</t>
   </si>
@@ -93,9 +102,6 @@
   </si>
   <si>
     <t>吋</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>${address_chi}</t>
@@ -297,6 +303,7 @@
       <rPr>
         <sz val="24"/>
         <rFont val="細明體"/>
+        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>收貨簽名</t>
@@ -305,6 +312,7 @@
       <rPr>
         <sz val="24"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t xml:space="preserve"> / </t>
@@ -313,6 +321,7 @@
       <rPr>
         <sz val="24"/>
         <rFont val="細明體"/>
+        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>蓋章</t>
@@ -321,6 +330,7 @@
       <rPr>
         <sz val="24"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -330,7 +340,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$$-404]#,##0.00;[Red]\-[$$-404]#,##0.00"/>
@@ -338,7 +348,7 @@
     <numFmt numFmtId="166" formatCode="_(\$* #,##0.0_);_(\$* \(#,##0.0\);_(\$* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -351,19 +361,23 @@
       <i/>
       <sz val="20"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="8"/>
@@ -374,6 +388,7 @@
     <font>
       <sz val="16"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="16"/>
@@ -386,15 +401,18 @@
       <b/>
       <sz val="24"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="24"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
       <name val="MingLiU"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
@@ -402,37 +420,36 @@
       <sz val="24"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="24"/>
       <color rgb="FF00B050"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="24"/>
       <color rgb="FFC55A11"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="24"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color rgb="FFFF0000"/>
-      <name val="MingLiU"/>
-      <charset val="136"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="24"/>
       <name val="細明體"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
       <sz val="24"/>
       <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
@@ -440,6 +457,44 @@
       <i/>
       <sz val="30"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="MingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -451,12 +506,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -609,11 +664,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -637,9 +710,6 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -730,24 +800,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -778,25 +836,22 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -808,25 +863,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -841,29 +887,68 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -874,6 +959,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -891,7 +979,13 @@
     <xdr:ext cx="2362200" cy="876300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image10.jpg"/>
+        <xdr:cNvPr id="2" name="image10.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1178,24 +1272,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39:K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="8" max="8" width="25" customWidth="1"/>
     <col min="11" max="11" width="6.5" customWidth="1"/>
     <col min="13" max="13" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1212,7 +1306,7 @@
       <c r="N1" s="6"/>
       <c r="O1" s="7"/>
     </row>
-    <row r="2" spans="1:15" ht="25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1223,7 +1317,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
       <c r="J2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -1231,7 +1325,7 @@
       <c r="N2" s="6"/>
       <c r="O2" s="7"/>
     </row>
-    <row r="3" spans="1:15" ht="25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="25">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1242,7 +1336,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
       <c r="J3" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -1250,7 +1344,7 @@
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:15" ht="25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="33">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1259,19 +1353,19 @@
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="9" t="s">
+      <c r="I4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
       <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="1:15" ht="25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1281,850 +1375,863 @@
       <c r="G5" s="3"/>
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="76" t="s">
+      <c r="M5" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="67"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="1:15" ht="37">
+      <c r="A6" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+    </row>
+    <row r="7" spans="1:15" s="7" customFormat="1" ht="30">
+      <c r="A7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="76"/>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="1:15" ht="37" x14ac:dyDescent="0.2">
-      <c r="A6" s="77" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-    </row>
-    <row r="7" spans="1:15" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12" t="s">
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:15" s="7" customFormat="1" ht="33">
+      <c r="A8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F8" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+    </row>
+    <row r="9" spans="1:15" ht="27" customHeight="1">
+      <c r="A9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="72"/>
+    </row>
+    <row r="10" spans="1:15" ht="30" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="75"/>
+    </row>
+    <row r="11" spans="1:15" ht="33" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="78"/>
+    </row>
+    <row r="12" spans="1:15" s="7" customFormat="1" ht="33">
+      <c r="A12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="63"/>
+    </row>
+    <row r="13" spans="1:15" ht="30">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" ht="30">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="34">
+      <c r="A15" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="80"/>
+      <c r="H15" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-    </row>
-    <row r="8" spans="1:15" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12" t="s">
+    </row>
+    <row r="16" spans="1:15" ht="30">
+      <c r="A16" s="25"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="80"/>
+      <c r="H16" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="58"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="30">
+      <c r="A17" s="25"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="80"/>
+      <c r="H17" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="30">
+      <c r="A18" s="25"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="80"/>
+      <c r="H18" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="58"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="30">
+      <c r="A19" s="25"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="80"/>
+      <c r="H19" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="58"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="30">
+      <c r="A20" s="25"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="80"/>
+      <c r="H20" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="30">
+      <c r="A21" s="25"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="80"/>
+      <c r="H21" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="58"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="30">
+      <c r="A22" s="25"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="80"/>
+      <c r="H22" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" s="58"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="30">
+      <c r="A23" s="25"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="80"/>
+      <c r="H23" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="30">
+      <c r="A24" s="25"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="80"/>
+      <c r="H24" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="J24" s="58"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="30">
+      <c r="A25" s="25"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="27"/>
+    </row>
+    <row r="26" spans="1:14" ht="34">
+      <c r="A26" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" s="36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="34">
+      <c r="A27" s="37"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="M27" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="34">
+      <c r="A28" s="37"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="M28" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="30">
+      <c r="A29" s="37"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="27"/>
+    </row>
+    <row r="30" spans="1:14" ht="34">
+      <c r="A30" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="39"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="M30" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" s="83" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="30">
+      <c r="A31" s="40"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="39"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="M31" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="83" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="30">
+      <c r="A32" s="40"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32" s="39"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="M32" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" s="83" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="34">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" s="85"/>
+      <c r="N33" s="86">
+        <f>SUM(N15:N32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="30">
+      <c r="A34" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="41"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="78" t="s">
+      <c r="F34" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+    </row>
+    <row r="35" spans="1:14" ht="30">
+      <c r="A35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="41"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+    </row>
+    <row r="36" spans="1:14" ht="30">
+      <c r="A36" s="42"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+    </row>
+    <row r="37" spans="1:14" ht="30">
+      <c r="A37" s="44"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="55"/>
+    </row>
+    <row r="38" spans="1:14" ht="30">
+      <c r="A38" s="11"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+    </row>
+    <row r="39" spans="1:14" ht="30">
+      <c r="A39" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="42"/>
+      <c r="C39" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78"/>
-    </row>
-    <row r="9" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="81"/>
-    </row>
-    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="84"/>
-    </row>
-    <row r="11" spans="1:15" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="72"/>
-    </row>
-    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-    </row>
-    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="62"/>
-      <c r="H14" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="64"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="62"/>
-      <c r="H15" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="64"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="64"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="62"/>
-      <c r="H17" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="I17" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="J17" s="64"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="62"/>
-      <c r="H18" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I18" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="J18" s="64"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="62"/>
-      <c r="H19" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="J19" s="64"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="62"/>
-      <c r="H20" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I20" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="J20" s="64"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="62"/>
-      <c r="H21" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="I21" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="J21" s="64"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A22" s="26"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="62"/>
-      <c r="H22" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="I22" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="J22" s="64"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="G23" s="62"/>
-      <c r="H23" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="I23" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="J23" s="64"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="25" t="s">
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="88"/>
+      <c r="J39" s="88"/>
+      <c r="K39" s="88"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+    </row>
+    <row r="40" spans="1:14" ht="30">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+    </row>
+    <row r="41" spans="1:14" ht="30">
+      <c r="A41" s="42"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+    </row>
+    <row r="42" spans="1:14" ht="30">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="60"/>
+      <c r="N42" s="60"/>
+    </row>
+    <row r="43" spans="1:14" ht="34">
+      <c r="A43" s="44"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="53" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A24" s="26"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="28"/>
-    </row>
-    <row r="25" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="M25" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" s="37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="M26" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N26" s="25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N27" s="39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A28" s="38"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="28"/>
-    </row>
-    <row r="29" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="J29" s="41"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="M29" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N29" s="43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A30" s="44"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" s="30"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="M30" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N30" s="43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A31" s="44"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="J31" s="41"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="M31" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N31" s="43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="M32" s="67"/>
-      <c r="N32" s="45">
-        <f>SUM(N14:N31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-    </row>
-    <row r="34" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-    </row>
-    <row r="35" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A35" s="47"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-    </row>
-    <row r="36" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A36" s="49"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="58"/>
-    </row>
-    <row r="37" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-    </row>
-    <row r="38" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A38" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-    </row>
-    <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46"/>
-    </row>
-    <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A40" s="47"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-    </row>
-    <row r="41" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="K41" s="69"/>
-      <c r="L41" s="69"/>
-      <c r="M41" s="69"/>
-      <c r="N41" s="69"/>
-    </row>
-    <row r="42" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" s="49"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="K42" s="56"/>
-      <c r="L42" s="56"/>
-      <c r="M42" s="56"/>
-      <c r="N42" s="56"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="53"/>
+      <c r="N43" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="45">
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:M21"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="I22:K22"/>
     <mergeCell ref="L22:M22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:M19"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="L20:M20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:M21"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="L18:M18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:M16"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="A6:N6"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="K8:N8"/>
-    <mergeCell ref="F9:N10"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="F34:N36"/>
+    <mergeCell ref="F9:N11"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="J43:N43"/>
+    <mergeCell ref="F35:N37"/>
     <mergeCell ref="K4:N4"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="C39:K39"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J41:N41"/>
-    <mergeCell ref="F11:N11"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="F12:N12"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="I15:K15"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
